--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10104_汎用エラー.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10104_汎用エラー.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10104(汎用エラー)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10104(汎用エラー)'!$A$1:$AI$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10104(汎用エラー)'!$A$1:$AI$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="0">
+    <comment ref="G68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>PJ名</t>
   </si>
@@ -830,16 +830,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>(1) 表示処理</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>1.0版</t>
     <rPh sb="3" eb="4">
       <t>ハン</t>
@@ -980,28 +970,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>TOPメニュー画面を表示する。</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「ログアウト」リンククリック</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ログイン中のユーザをログアウトする。</t>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1045,61 +1013,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>(1) ログアウト処理</t>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>) 表示処理</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ログイン中のユーザのセッションをクリアし、ログアウトする。</t>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ログアウトへ遷移する。</t>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>システム機能設計書（画面）
 WA10104/汎用エラー</t>
     <rPh sb="4" eb="6">
@@ -1130,60 +1043,30 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>画面上で発生したエラーについてその内容と対処方法をユーザに表示する。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>TOPメニュー</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「TOPメニュー」リンククリック</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>TOPメニューへ遷移する。</t>
+    <t>-</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>汎用エラー画面を表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>予期せぬエラーが発生した旨をユーザに表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.2. TOPメニューイベント</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.3. ログアウトイベント</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>エラーエリア</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>セッション</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>メッセージID：メッセージ内容</t>
-    <rPh sb="13" eb="15">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>セッションからエラー情報を取得してエラーエリアに表示する。</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ムネ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1196,7 +1079,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2195,6 +2078,150 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2237,148 +2264,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,18 +2303,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2471,80 +2354,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2552,31 +2366,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,69 +2390,159 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6"/>
@@ -3465,42 +3348,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3511,7 +3394,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3520,7 +3403,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3532,7 +3415,7 @@
       <c r="K25" s="147"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3541,7 +3424,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3550,7 +3433,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3559,7 +3442,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3567,7 +3450,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3576,7 +3459,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3585,7 +3468,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3594,7 +3477,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3606,7 +3489,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3621,515 +3504,515 @@
       <c r="R34" s="87"/>
       <c r="S34" s="87"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="87"/>
       <c r="R35" s="87"/>
       <c r="S35" s="87"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="88"/>
       <c r="P36" s="87"/>
       <c r="Q36" s="88"/>
       <c r="R36" s="87"/>
       <c r="S36" s="85"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="89"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="89"/>
       <c r="R37" s="90"/>
       <c r="S37" s="89"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="90"/>
       <c r="P38" s="90"/>
       <c r="Q38" s="90"/>
       <c r="R38" s="90"/>
       <c r="S38" s="90"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="90"/>
       <c r="P39" s="90"/>
       <c r="Q39" s="90"/>
       <c r="R39" s="90"/>
       <c r="S39" s="90"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4154,170 +4037,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="195" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="151" t="s">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="201" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="203"/>
-      <c r="AA1" s="148" t="s">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="179"/>
+      <c r="U1" s="179"/>
+      <c r="V1" s="179"/>
+      <c r="W1" s="179"/>
+      <c r="X1" s="179"/>
+      <c r="Y1" s="179"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="148" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="154">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="148" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="195" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="148" t="s">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="154" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="148" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="195" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="208"/>
-      <c r="V3" s="208"/>
-      <c r="W3" s="208"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="208"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="185"/>
-      <c r="AG3" s="189"/>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4359,7 +4242,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4403,7 +4286,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4445,1034 +4328,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="174" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="174" t="s">
+      <c r="E7" s="164"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="174" t="s">
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="174" t="s">
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="176"/>
-      <c r="S7" s="176"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
-      <c r="V7" s="176"/>
-      <c r="W7" s="176"/>
-      <c r="X7" s="176"/>
-      <c r="Y7" s="176"/>
-      <c r="Z7" s="176"/>
-      <c r="AA7" s="176"/>
-      <c r="AB7" s="176"/>
-      <c r="AC7" s="176"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="174" t="s">
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="176"/>
-      <c r="AH7" s="176"/>
-      <c r="AI7" s="175"/>
-    </row>
-    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="165"/>
+    </row>
+    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="190" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="191"/>
+      <c r="D8" s="192">
+        <v>43599</v>
+      </c>
+      <c r="E8" s="193"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179">
-        <v>43599</v>
-      </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="177" t="s">
+      <c r="H8" s="195"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="182"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="198" t="s">
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="186" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="187"/>
-      <c r="S8" s="187"/>
-      <c r="T8" s="187"/>
-      <c r="U8" s="187"/>
-      <c r="V8" s="187"/>
-      <c r="W8" s="187"/>
-      <c r="X8" s="187"/>
-      <c r="Y8" s="187"/>
-      <c r="Z8" s="187"/>
-      <c r="AA8" s="187"/>
-      <c r="AB8" s="187"/>
-      <c r="AC8" s="187"/>
-      <c r="AD8" s="187"/>
-      <c r="AE8" s="188"/>
-      <c r="AF8" s="198" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG8" s="199"/>
-      <c r="AH8" s="199"/>
-      <c r="AI8" s="200"/>
-    </row>
-    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="177"/>
+    </row>
+    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="163"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="166"/>
-      <c r="AH9" s="166"/>
-      <c r="AI9" s="167"/>
-    </row>
-    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="160"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
+      <c r="U9" s="170"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="170"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="171"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="174"/>
+    </row>
+    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="163"/>
-      <c r="Z10" s="163"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="165"/>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="166"/>
-      <c r="AI10" s="167"/>
-    </row>
-    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="160"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="170"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="170"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="174"/>
+    </row>
+    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="163"/>
-      <c r="AA11" s="163"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="163"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="166"/>
-      <c r="AI11" s="167"/>
-    </row>
-    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="160"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="170"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="170"/>
+      <c r="AA11" s="170"/>
+      <c r="AB11" s="170"/>
+      <c r="AC11" s="170"/>
+      <c r="AD11" s="170"/>
+      <c r="AE11" s="171"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="174"/>
+    </row>
+    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="167"/>
-    </row>
-    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="160"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="170"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="170"/>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="170"/>
+      <c r="AC12" s="170"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="171"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="174"/>
+    </row>
+    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="163"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="163"/>
-      <c r="Z13" s="163"/>
-      <c r="AA13" s="163"/>
-      <c r="AB13" s="163"/>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="164"/>
-      <c r="AF13" s="165"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="167"/>
-    </row>
-    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="160"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170"/>
+      <c r="U13" s="170"/>
+      <c r="V13" s="170"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="170"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="170"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="171"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="174"/>
+    </row>
+    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="163"/>
-      <c r="Z14" s="163"/>
-      <c r="AA14" s="163"/>
-      <c r="AB14" s="163"/>
-      <c r="AC14" s="163"/>
-      <c r="AD14" s="163"/>
-      <c r="AE14" s="164"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="166"/>
-      <c r="AH14" s="166"/>
-      <c r="AI14" s="167"/>
-    </row>
-    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="160"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="171"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="174"/>
+    </row>
+    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="163"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="163"/>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="165"/>
-      <c r="AG15" s="166"/>
-      <c r="AH15" s="166"/>
-      <c r="AI15" s="167"/>
-    </row>
-    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="160"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="170"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="170"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="170"/>
+      <c r="AB15" s="170"/>
+      <c r="AC15" s="170"/>
+      <c r="AD15" s="170"/>
+      <c r="AE15" s="171"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="174"/>
+    </row>
+    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="165"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="167"/>
-    </row>
-    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="160"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="170"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="170"/>
+      <c r="AE16" s="171"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="174"/>
+    </row>
+    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="163"/>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="165"/>
-      <c r="AG17" s="166"/>
-      <c r="AH17" s="166"/>
-      <c r="AI17" s="167"/>
-    </row>
-    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="160"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="170"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="170"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="170"/>
+      <c r="AB17" s="170"/>
+      <c r="AC17" s="170"/>
+      <c r="AD17" s="170"/>
+      <c r="AE17" s="171"/>
+      <c r="AF17" s="172"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="174"/>
+    </row>
+    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="166"/>
-      <c r="AH18" s="166"/>
-      <c r="AI18" s="167"/>
-    </row>
-    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="160"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="170"/>
+      <c r="U18" s="170"/>
+      <c r="V18" s="170"/>
+      <c r="W18" s="170"/>
+      <c r="X18" s="170"/>
+      <c r="Y18" s="170"/>
+      <c r="Z18" s="170"/>
+      <c r="AA18" s="170"/>
+      <c r="AB18" s="170"/>
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="171"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="174"/>
+    </row>
+    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
-      <c r="Y19" s="163"/>
-      <c r="Z19" s="163"/>
-      <c r="AA19" s="163"/>
-      <c r="AB19" s="163"/>
-      <c r="AC19" s="163"/>
-      <c r="AD19" s="163"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="165"/>
-      <c r="AG19" s="166"/>
-      <c r="AH19" s="166"/>
-      <c r="AI19" s="167"/>
-    </row>
-    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="160"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="170"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="170"/>
+      <c r="Y19" s="170"/>
+      <c r="Z19" s="170"/>
+      <c r="AA19" s="170"/>
+      <c r="AB19" s="170"/>
+      <c r="AC19" s="170"/>
+      <c r="AD19" s="170"/>
+      <c r="AE19" s="171"/>
+      <c r="AF19" s="172"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="174"/>
+    </row>
+    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="163"/>
-      <c r="Z20" s="163"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="163"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="166"/>
-      <c r="AH20" s="166"/>
-      <c r="AI20" s="167"/>
-    </row>
-    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="160"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="170"/>
+      <c r="S20" s="170"/>
+      <c r="T20" s="170"/>
+      <c r="U20" s="170"/>
+      <c r="V20" s="170"/>
+      <c r="W20" s="170"/>
+      <c r="X20" s="170"/>
+      <c r="Y20" s="170"/>
+      <c r="Z20" s="170"/>
+      <c r="AA20" s="170"/>
+      <c r="AB20" s="170"/>
+      <c r="AC20" s="170"/>
+      <c r="AD20" s="170"/>
+      <c r="AE20" s="171"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="174"/>
+    </row>
+    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="167"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="163"/>
-      <c r="X21" s="163"/>
-      <c r="Y21" s="163"/>
-      <c r="Z21" s="163"/>
-      <c r="AA21" s="163"/>
-      <c r="AB21" s="163"/>
-      <c r="AC21" s="163"/>
-      <c r="AD21" s="163"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="166"/>
-      <c r="AH21" s="166"/>
-      <c r="AI21" s="167"/>
-    </row>
-    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="160"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="169"/>
+      <c r="R21" s="170"/>
+      <c r="S21" s="170"/>
+      <c r="T21" s="170"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="170"/>
+      <c r="W21" s="170"/>
+      <c r="X21" s="170"/>
+      <c r="Y21" s="170"/>
+      <c r="Z21" s="170"/>
+      <c r="AA21" s="170"/>
+      <c r="AB21" s="170"/>
+      <c r="AC21" s="170"/>
+      <c r="AD21" s="170"/>
+      <c r="AE21" s="171"/>
+      <c r="AF21" s="172"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="174"/>
+    </row>
+    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="167"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="163"/>
-      <c r="S22" s="163"/>
-      <c r="T22" s="163"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="163"/>
-      <c r="W22" s="163"/>
-      <c r="X22" s="163"/>
-      <c r="Y22" s="163"/>
-      <c r="Z22" s="163"/>
-      <c r="AA22" s="163"/>
-      <c r="AB22" s="163"/>
-      <c r="AC22" s="163"/>
-      <c r="AD22" s="163"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="166"/>
-      <c r="AH22" s="166"/>
-      <c r="AI22" s="167"/>
-    </row>
-    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="160"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="169"/>
+      <c r="R22" s="170"/>
+      <c r="S22" s="170"/>
+      <c r="T22" s="170"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="170"/>
+      <c r="W22" s="170"/>
+      <c r="X22" s="170"/>
+      <c r="Y22" s="170"/>
+      <c r="Z22" s="170"/>
+      <c r="AA22" s="170"/>
+      <c r="AB22" s="170"/>
+      <c r="AC22" s="170"/>
+      <c r="AD22" s="170"/>
+      <c r="AE22" s="171"/>
+      <c r="AF22" s="172"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="174"/>
+    </row>
+    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="163"/>
-      <c r="Z23" s="163"/>
-      <c r="AA23" s="163"/>
-      <c r="AB23" s="163"/>
-      <c r="AC23" s="163"/>
-      <c r="AD23" s="163"/>
-      <c r="AE23" s="164"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="166"/>
-      <c r="AH23" s="166"/>
-      <c r="AI23" s="167"/>
-    </row>
-    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="160"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="174"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
+      <c r="Y23" s="170"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="170"/>
+      <c r="AB23" s="170"/>
+      <c r="AC23" s="170"/>
+      <c r="AD23" s="170"/>
+      <c r="AE23" s="171"/>
+      <c r="AF23" s="172"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="174"/>
+    </row>
+    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="167"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
-      <c r="AB24" s="163"/>
-      <c r="AC24" s="163"/>
-      <c r="AD24" s="163"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="165"/>
-      <c r="AG24" s="166"/>
-      <c r="AH24" s="166"/>
-      <c r="AI24" s="167"/>
-    </row>
-    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="160"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="169"/>
+      <c r="R24" s="170"/>
+      <c r="S24" s="170"/>
+      <c r="T24" s="170"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="170"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="170"/>
+      <c r="Y24" s="170"/>
+      <c r="Z24" s="170"/>
+      <c r="AA24" s="170"/>
+      <c r="AB24" s="170"/>
+      <c r="AC24" s="170"/>
+      <c r="AD24" s="170"/>
+      <c r="AE24" s="171"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="174"/>
+    </row>
+    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="167"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="163"/>
-      <c r="AA25" s="163"/>
-      <c r="AB25" s="163"/>
-      <c r="AC25" s="163"/>
-      <c r="AD25" s="163"/>
-      <c r="AE25" s="164"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="166"/>
-      <c r="AH25" s="166"/>
-      <c r="AI25" s="167"/>
-    </row>
-    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="160"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170"/>
+      <c r="T25" s="170"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="170"/>
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
+      <c r="Y25" s="170"/>
+      <c r="Z25" s="170"/>
+      <c r="AA25" s="170"/>
+      <c r="AB25" s="170"/>
+      <c r="AC25" s="170"/>
+      <c r="AD25" s="170"/>
+      <c r="AE25" s="171"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="174"/>
+    </row>
+    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="167"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="163"/>
-      <c r="AA26" s="163"/>
-      <c r="AB26" s="163"/>
-      <c r="AC26" s="163"/>
-      <c r="AD26" s="163"/>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="165"/>
-      <c r="AG26" s="166"/>
-      <c r="AH26" s="166"/>
-      <c r="AI26" s="167"/>
-    </row>
-    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="160"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="169"/>
+      <c r="R26" s="170"/>
+      <c r="S26" s="170"/>
+      <c r="T26" s="170"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="170"/>
+      <c r="Y26" s="170"/>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="170"/>
+      <c r="AB26" s="170"/>
+      <c r="AC26" s="170"/>
+      <c r="AD26" s="170"/>
+      <c r="AE26" s="171"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="174"/>
+    </row>
+    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="167"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="163"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="163"/>
-      <c r="AE27" s="164"/>
-      <c r="AF27" s="165"/>
-      <c r="AG27" s="166"/>
-      <c r="AH27" s="166"/>
-      <c r="AI27" s="167"/>
-    </row>
-    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="160"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="170"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="170"/>
+      <c r="W27" s="170"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="170"/>
+      <c r="Z27" s="170"/>
+      <c r="AA27" s="170"/>
+      <c r="AB27" s="170"/>
+      <c r="AC27" s="170"/>
+      <c r="AD27" s="170"/>
+      <c r="AE27" s="171"/>
+      <c r="AF27" s="172"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
+      <c r="AI27" s="174"/>
+    </row>
+    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="163"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
-      <c r="AB28" s="163"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="163"/>
-      <c r="AE28" s="164"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="166"/>
-      <c r="AH28" s="166"/>
-      <c r="AI28" s="167"/>
-    </row>
-    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="160"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="170"/>
+      <c r="T28" s="170"/>
+      <c r="U28" s="170"/>
+      <c r="V28" s="170"/>
+      <c r="W28" s="170"/>
+      <c r="X28" s="170"/>
+      <c r="Y28" s="170"/>
+      <c r="Z28" s="170"/>
+      <c r="AA28" s="170"/>
+      <c r="AB28" s="170"/>
+      <c r="AC28" s="170"/>
+      <c r="AD28" s="170"/>
+      <c r="AE28" s="171"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="174"/>
+    </row>
+    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="163"/>
-      <c r="X29" s="163"/>
-      <c r="Y29" s="163"/>
-      <c r="Z29" s="163"/>
-      <c r="AA29" s="163"/>
-      <c r="AB29" s="163"/>
-      <c r="AC29" s="163"/>
-      <c r="AD29" s="163"/>
-      <c r="AE29" s="164"/>
-      <c r="AF29" s="165"/>
-      <c r="AG29" s="166"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="167"/>
-    </row>
-    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="160"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="170"/>
+      <c r="S29" s="170"/>
+      <c r="T29" s="170"/>
+      <c r="U29" s="170"/>
+      <c r="V29" s="170"/>
+      <c r="W29" s="170"/>
+      <c r="X29" s="170"/>
+      <c r="Y29" s="170"/>
+      <c r="Z29" s="170"/>
+      <c r="AA29" s="170"/>
+      <c r="AB29" s="170"/>
+      <c r="AC29" s="170"/>
+      <c r="AD29" s="170"/>
+      <c r="AE29" s="171"/>
+      <c r="AF29" s="172"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
+      <c r="AI29" s="174"/>
+    </row>
+    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="167"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="163"/>
-      <c r="Z30" s="163"/>
-      <c r="AA30" s="163"/>
-      <c r="AB30" s="163"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="163"/>
-      <c r="AE30" s="164"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="166"/>
-      <c r="AH30" s="166"/>
-      <c r="AI30" s="167"/>
-    </row>
-    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="160"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="170"/>
+      <c r="S30" s="170"/>
+      <c r="T30" s="170"/>
+      <c r="U30" s="170"/>
+      <c r="V30" s="170"/>
+      <c r="W30" s="170"/>
+      <c r="X30" s="170"/>
+      <c r="Y30" s="170"/>
+      <c r="Z30" s="170"/>
+      <c r="AA30" s="170"/>
+      <c r="AB30" s="170"/>
+      <c r="AC30" s="170"/>
+      <c r="AD30" s="170"/>
+      <c r="AE30" s="171"/>
+      <c r="AF30" s="172"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
+      <c r="AI30" s="174"/>
+    </row>
+    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="163"/>
-      <c r="Z31" s="163"/>
-      <c r="AA31" s="163"/>
-      <c r="AB31" s="163"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="163"/>
-      <c r="AE31" s="164"/>
-      <c r="AF31" s="165"/>
-      <c r="AG31" s="166"/>
-      <c r="AH31" s="166"/>
-      <c r="AI31" s="167"/>
-    </row>
-    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="160"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="169"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="170"/>
+      <c r="AB31" s="170"/>
+      <c r="AC31" s="170"/>
+      <c r="AD31" s="170"/>
+      <c r="AE31" s="171"/>
+      <c r="AF31" s="172"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
+      <c r="AI31" s="174"/>
+    </row>
+    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163"/>
-      <c r="V32" s="163"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="163"/>
-      <c r="AB32" s="163"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="163"/>
-      <c r="AE32" s="164"/>
-      <c r="AF32" s="165"/>
-      <c r="AG32" s="166"/>
-      <c r="AH32" s="166"/>
-      <c r="AI32" s="167"/>
-    </row>
-    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="160"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="169"/>
+      <c r="R32" s="170"/>
+      <c r="S32" s="170"/>
+      <c r="T32" s="170"/>
+      <c r="U32" s="170"/>
+      <c r="V32" s="170"/>
+      <c r="W32" s="170"/>
+      <c r="X32" s="170"/>
+      <c r="Y32" s="170"/>
+      <c r="Z32" s="170"/>
+      <c r="AA32" s="170"/>
+      <c r="AB32" s="170"/>
+      <c r="AC32" s="170"/>
+      <c r="AD32" s="170"/>
+      <c r="AE32" s="171"/>
+      <c r="AF32" s="172"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="174"/>
+    </row>
+    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="163"/>
-      <c r="S33" s="163"/>
-      <c r="T33" s="163"/>
-      <c r="U33" s="163"/>
-      <c r="V33" s="163"/>
-      <c r="W33" s="163"/>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="163"/>
-      <c r="AB33" s="163"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="163"/>
-      <c r="AE33" s="164"/>
-      <c r="AF33" s="165"/>
-      <c r="AG33" s="166"/>
-      <c r="AH33" s="166"/>
-      <c r="AI33" s="167"/>
-    </row>
-    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="160"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="169"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="170"/>
+      <c r="T33" s="170"/>
+      <c r="U33" s="170"/>
+      <c r="V33" s="170"/>
+      <c r="W33" s="170"/>
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="170"/>
+      <c r="AA33" s="170"/>
+      <c r="AB33" s="170"/>
+      <c r="AC33" s="170"/>
+      <c r="AD33" s="170"/>
+      <c r="AE33" s="171"/>
+      <c r="AF33" s="172"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="174"/>
+    </row>
+    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -5511,161 +5394,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5690,11 +5418,166 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5710,7 +5593,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="63" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="48" customWidth="1"/>
@@ -5845,161 +5728,161 @@
     <col min="16163" max="16384" width="4.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="219" t="str">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="151" t="s">
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="210" t="str">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="148" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="220">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A2" s="148" t="s">
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="212"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="219" t="str">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="148" t="s">
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A3" s="148" t="s">
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="212"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="219" t="str">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="183" t="str">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="185"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
-    </row>
-    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="212"/>
+    </row>
+    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -6036,7 +5919,7 @@
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
     </row>
-    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6075,7 +5958,7 @@
       <c r="AH5" s="29"/>
       <c r="AI5" s="29"/>
     </row>
-    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -6112,7 +5995,7 @@
       <c r="AH6" s="58"/>
       <c r="AI6" s="58"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
         <v>42</v>
@@ -6151,7 +6034,7 @@
       <c r="AH7" s="38"/>
       <c r="AI7" s="62"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
@@ -6190,7 +6073,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="62"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="53"/>
       <c r="C9" s="37"/>
@@ -6227,10 +6110,10 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="31"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="31"/>
@@ -6266,7 +6149,7 @@
       <c r="AH10" s="38"/>
       <c r="AI10" s="62"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="53"/>
       <c r="C11" s="41" t="s">
@@ -6305,7 +6188,7 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="62"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="53"/>
       <c r="C12" s="31" t="s">
@@ -6339,11 +6222,11 @@
       <c r="AH12" s="38"/>
       <c r="AI12" s="62"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="62"/>
       <c r="C13" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -6378,7 +6261,7 @@
       <c r="AH13" s="38"/>
       <c r="AI13" s="62"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="41"/>
       <c r="C14" s="28" t="s">
@@ -6417,7 +6300,7 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="62"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
       <c r="B15" s="41"/>
       <c r="C15" s="28" t="s">
@@ -6452,7 +6335,7 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="62"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="58"/>
       <c r="C16" s="31" t="s">
@@ -6491,7 +6374,7 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="62"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
       <c r="B17" s="58"/>
       <c r="C17" s="33"/>
@@ -6527,7 +6410,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="62"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -6564,7 +6447,7 @@
       <c r="AH18" s="42"/>
       <c r="AI18" s="68"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
@@ -6598,7 +6481,7 @@
       <c r="AH19" s="42"/>
       <c r="AI19" s="68"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J20" s="71"/>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
@@ -6626,7 +6509,7 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="68"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -6653,7 +6536,7 @@
       <c r="AH21" s="46"/>
       <c r="AI21" s="26"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
@@ -6678,7 +6561,7 @@
       <c r="AH22" s="49"/>
       <c r="AI22" s="72"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="72"/>
       <c r="T23" s="72"/>
       <c r="U23" s="73"/>
@@ -6697,7 +6580,7 @@
       <c r="AH23" s="51"/>
       <c r="AI23" s="72"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="71"/>
       <c r="Q24" s="52"/>
       <c r="S24" s="72"/>
@@ -6718,7 +6601,7 @@
       <c r="AH24" s="51"/>
       <c r="AI24" s="72"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
       <c r="U25" s="72"/>
@@ -6737,7 +6620,7 @@
       <c r="AH25" s="51"/>
       <c r="AI25" s="72"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71"/>
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
@@ -6751,7 +6634,7 @@
       <c r="AH26" s="51"/>
       <c r="AI26" s="72"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="71"/>
       <c r="AE27" s="72"/>
       <c r="AF27" s="76"/>
@@ -6759,28 +6642,28 @@
       <c r="AH27" s="51"/>
       <c r="AI27" s="72"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="72"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="51"/>
       <c r="AI28" s="72"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="77"/>
       <c r="AG29" s="77"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="77"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="77"/>
       <c r="AG31" s="77"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="77"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
       <c r="V33" s="71"/>
@@ -6793,7 +6676,7 @@
       <c r="AC33" s="71"/>
       <c r="AD33" s="71"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="71"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
@@ -6808,10 +6691,10 @@
       <c r="AD34" s="71"/>
       <c r="AG34" s="77"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="71"/>
     </row>
-    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
@@ -6844,7 +6727,7 @@
       <c r="AD36" s="63"/>
       <c r="AH36" s="52"/>
     </row>
-    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63"/>
@@ -6879,14 +6762,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6896,11 +6771,19 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6916,178 +6799,178 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="219" t="str">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="151" t="s">
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="210" t="str">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="148" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="220">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1">
-      <c r="A2" s="148" t="s">
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="212"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="219" t="str">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="148" t="s">
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1">
-      <c r="A3" s="148" t="s">
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="212"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="219" t="str">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="183" t="str">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="185"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="212"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="91" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="91" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="92"/>
       <c r="C8" s="233" t="s">
         <v>45</v>
@@ -7095,8 +6978,8 @@
       <c r="D8" s="234"/>
       <c r="E8" s="234"/>
       <c r="F8" s="235"/>
-      <c r="G8" s="165" t="s">
-        <v>130</v>
+      <c r="G8" s="172" t="s">
+        <v>120</v>
       </c>
       <c r="H8" s="236"/>
       <c r="I8" s="236"/>
@@ -7125,7 +7008,7 @@
       <c r="AF8" s="234"/>
       <c r="AG8" s="235"/>
     </row>
-    <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="92"/>
       <c r="C9" s="237" t="s">
         <v>46</v>
@@ -7133,8 +7016,8 @@
       <c r="D9" s="238"/>
       <c r="E9" s="238"/>
       <c r="F9" s="239"/>
-      <c r="G9" s="165" t="s">
-        <v>129</v>
+      <c r="G9" s="172" t="s">
+        <v>119</v>
       </c>
       <c r="H9" s="234"/>
       <c r="I9" s="234"/>
@@ -7163,7 +7046,7 @@
       <c r="AF9" s="234"/>
       <c r="AG9" s="235"/>
     </row>
-    <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="92"/>
       <c r="C10" s="224" t="s">
         <v>47</v>
@@ -7172,7 +7055,7 @@
       <c r="E10" s="225"/>
       <c r="F10" s="226"/>
       <c r="G10" s="144" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -7201,7 +7084,7 @@
       <c r="AF10" s="93"/>
       <c r="AG10" s="94"/>
     </row>
-    <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="92"/>
       <c r="C11" s="227"/>
       <c r="D11" s="228"/>
@@ -7235,7 +7118,7 @@
       <c r="AF11" s="35"/>
       <c r="AG11" s="96"/>
     </row>
-    <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="92"/>
       <c r="C12" s="227"/>
       <c r="D12" s="228"/>
@@ -7269,7 +7152,7 @@
       <c r="AF12" s="35"/>
       <c r="AG12" s="96"/>
     </row>
-    <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="92"/>
       <c r="C13" s="230"/>
       <c r="D13" s="231"/>
@@ -7303,7 +7186,7 @@
       <c r="AF13" s="98"/>
       <c r="AG13" s="99"/>
     </row>
-    <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="92"/>
       <c r="C14" s="223" t="s">
         <v>56</v>
@@ -7312,7 +7195,7 @@
       <c r="E14" s="223"/>
       <c r="F14" s="223"/>
       <c r="G14" s="100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="101"/>
       <c r="I14" s="101"/>
@@ -7341,58 +7224,46 @@
       <c r="AF14" s="101"/>
       <c r="AG14" s="102"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7404,11 +7275,23 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -7420,221 +7303,221 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF100"/>
+  <dimension ref="A1:BF80"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="17"/>
     <col min="8" max="9" width="4.83203125" style="17" customWidth="1"/>
     <col min="10" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="32" customFormat="1">
-      <c r="A1" s="273" t="s">
+    <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="219" t="str">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="151" t="s">
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="210" t="str">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10104/汎用エラー</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="148" t="s">
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="276">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="277"/>
+      <c r="AI1" s="278"/>
       <c r="AJ1" s="30"/>
     </row>
-    <row r="2" spans="1:36" s="32" customFormat="1">
-      <c r="A2" s="273" t="s">
+    <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="219" t="str">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="148" t="s">
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="276" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="278"/>
       <c r="AJ2" s="30"/>
     </row>
-    <row r="3" spans="1:36" s="32" customFormat="1">
-      <c r="A3" s="273" t="s">
+    <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="219" t="str">
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="183" t="str">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="185"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="276" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="277"/>
+      <c r="AI3" s="278"/>
       <c r="AJ3" s="30"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
       <c r="F40" s="118"/>
@@ -7667,7 +7550,7 @@
       <c r="AG40" s="118"/>
       <c r="AH40" s="118"/>
     </row>
-    <row r="41" spans="3:53">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C41" s="142" t="s">
         <v>57</v>
       </c>
@@ -7702,7 +7585,7 @@
       <c r="AG41" s="118"/>
       <c r="AH41" s="118"/>
     </row>
-    <row r="42" spans="3:53">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C42" s="35"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
@@ -7735,89 +7618,89 @@
       <c r="AG42" s="118"/>
       <c r="AH42" s="118"/>
     </row>
-    <row r="43" spans="3:53">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D43" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="269" t="s">
+      <c r="E43" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="269"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="269"/>
-      <c r="I43" s="269"/>
-      <c r="J43" s="269"/>
-      <c r="K43" s="269"/>
-      <c r="L43" s="269"/>
-      <c r="M43" s="269"/>
-      <c r="N43" s="269" t="s">
+      <c r="F43" s="282"/>
+      <c r="G43" s="282"/>
+      <c r="H43" s="282"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="282"/>
+      <c r="K43" s="282"/>
+      <c r="L43" s="282"/>
+      <c r="M43" s="282"/>
+      <c r="N43" s="282" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="269"/>
-      <c r="P43" s="269"/>
-      <c r="Q43" s="269" t="s">
+      <c r="O43" s="282"/>
+      <c r="P43" s="282"/>
+      <c r="Q43" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="269"/>
-      <c r="S43" s="269"/>
-      <c r="T43" s="269"/>
-      <c r="U43" s="269"/>
-      <c r="V43" s="269" t="s">
+      <c r="R43" s="282"/>
+      <c r="S43" s="282"/>
+      <c r="T43" s="282"/>
+      <c r="U43" s="282"/>
+      <c r="V43" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="W43" s="269"/>
-      <c r="X43" s="269"/>
-      <c r="Y43" s="269"/>
-      <c r="Z43" s="269"/>
-      <c r="AA43" s="269"/>
-      <c r="AB43" s="269"/>
-      <c r="AC43" s="269"/>
+      <c r="W43" s="282"/>
+      <c r="X43" s="282"/>
+      <c r="Y43" s="282"/>
+      <c r="Z43" s="282"/>
+      <c r="AA43" s="282"/>
+      <c r="AB43" s="282"/>
+      <c r="AC43" s="282"/>
       <c r="AD43" s="118"/>
       <c r="AE43" s="118"/>
       <c r="AF43" s="118"/>
       <c r="AG43" s="118"/>
       <c r="AH43" s="118"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="134">
         <v>1</v>
       </c>
-      <c r="E44" s="261" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="262"/>
-      <c r="G44" s="262"/>
-      <c r="H44" s="262"/>
-      <c r="I44" s="262"/>
-      <c r="J44" s="262"/>
-      <c r="K44" s="262"/>
-      <c r="L44" s="262"/>
-      <c r="M44" s="262"/>
-      <c r="N44" s="262" t="s">
+      <c r="E44" s="297" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="298"/>
+      <c r="G44" s="298"/>
+      <c r="H44" s="298"/>
+      <c r="I44" s="298"/>
+      <c r="J44" s="298"/>
+      <c r="K44" s="298"/>
+      <c r="L44" s="298"/>
+      <c r="M44" s="298"/>
+      <c r="N44" s="298" t="s">
         <v>83</v>
       </c>
-      <c r="O44" s="262"/>
-      <c r="P44" s="262"/>
-      <c r="Q44" s="252" t="s">
-        <v>96</v>
-      </c>
-      <c r="R44" s="252"/>
-      <c r="S44" s="252"/>
-      <c r="T44" s="252"/>
-      <c r="U44" s="252"/>
-      <c r="V44" s="253" t="s">
-        <v>102</v>
-      </c>
-      <c r="W44" s="252"/>
-      <c r="X44" s="252"/>
-      <c r="Y44" s="252"/>
-      <c r="Z44" s="252"/>
-      <c r="AA44" s="252"/>
-      <c r="AB44" s="252"/>
-      <c r="AC44" s="252"/>
+      <c r="O44" s="298"/>
+      <c r="P44" s="298"/>
+      <c r="Q44" s="294" t="s">
+        <v>95</v>
+      </c>
+      <c r="R44" s="294"/>
+      <c r="S44" s="294"/>
+      <c r="T44" s="294"/>
+      <c r="U44" s="294"/>
+      <c r="V44" s="295" t="s">
+        <v>101</v>
+      </c>
+      <c r="W44" s="294"/>
+      <c r="X44" s="294"/>
+      <c r="Y44" s="294"/>
+      <c r="Z44" s="294"/>
+      <c r="AA44" s="294"/>
+      <c r="AB44" s="294"/>
+      <c r="AC44" s="294"/>
       <c r="AM44" s="35"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="137"/>
       <c r="E45" s="129"/>
       <c r="F45" s="136"/>
@@ -7846,12 +7729,12 @@
       <c r="AC45" s="118"/>
       <c r="AM45" s="35"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O46" s="136"/>
     </row>
-    <row r="47" spans="3:53">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C47" s="103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK47" s="92"/>
       <c r="AL47" s="92"/>
@@ -7871,7 +7754,7 @@
       <c r="AZ47" s="92"/>
       <c r="BA47" s="92"/>
     </row>
-    <row r="48" spans="3:53" s="91" customFormat="1">
+    <row r="48" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AJ48" s="116"/>
       <c r="AK48" s="116"/>
       <c r="AL48" s="116"/>
@@ -7890,37 +7773,37 @@
       <c r="AY48" s="116"/>
       <c r="AZ48" s="116"/>
     </row>
-    <row r="49" spans="3:53" s="91" customFormat="1">
-      <c r="D49" s="243" t="s">
+    <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="285" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="258" t="s">
+      <c r="E49" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="259"/>
-      <c r="G49" s="259"/>
-      <c r="H49" s="259"/>
-      <c r="I49" s="259"/>
-      <c r="J49" s="259"/>
-      <c r="K49" s="259"/>
-      <c r="L49" s="259"/>
-      <c r="M49" s="259"/>
-      <c r="N49" s="259"/>
-      <c r="O49" s="259"/>
-      <c r="P49" s="259"/>
-      <c r="Q49" s="259"/>
-      <c r="R49" s="259"/>
-      <c r="S49" s="259"/>
-      <c r="T49" s="259"/>
-      <c r="U49" s="259"/>
-      <c r="V49" s="259"/>
-      <c r="W49" s="259"/>
-      <c r="X49" s="259"/>
-      <c r="Y49" s="259"/>
-      <c r="Z49" s="259"/>
-      <c r="AA49" s="259"/>
-      <c r="AB49" s="259"/>
-      <c r="AC49" s="260"/>
+      <c r="F49" s="269"/>
+      <c r="G49" s="269"/>
+      <c r="H49" s="269"/>
+      <c r="I49" s="269"/>
+      <c r="J49" s="269"/>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
+      <c r="M49" s="269"/>
+      <c r="N49" s="269"/>
+      <c r="O49" s="269"/>
+      <c r="P49" s="269"/>
+      <c r="Q49" s="269"/>
+      <c r="R49" s="269"/>
+      <c r="S49" s="269"/>
+      <c r="T49" s="269"/>
+      <c r="U49" s="269"/>
+      <c r="V49" s="269"/>
+      <c r="W49" s="269"/>
+      <c r="X49" s="269"/>
+      <c r="Y49" s="269"/>
+      <c r="Z49" s="269"/>
+      <c r="AA49" s="269"/>
+      <c r="AB49" s="269"/>
+      <c r="AC49" s="270"/>
       <c r="AD49" s="224" t="s">
         <v>34</v>
       </c>
@@ -7938,30 +7821,30 @@
       <c r="AP49" s="92"/>
       <c r="AQ49" s="92"/>
     </row>
-    <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1">
-      <c r="D50" s="244"/>
+    <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="286"/>
       <c r="E50" s="224" t="s">
         <v>32</v>
       </c>
       <c r="F50" s="225"/>
       <c r="G50" s="225"/>
       <c r="H50" s="226"/>
-      <c r="I50" s="257" t="s">
+      <c r="I50" s="296" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="247"/>
-      <c r="K50" s="247"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="246" t="s">
-        <v>99</v>
-      </c>
-      <c r="N50" s="247"/>
-      <c r="O50" s="247"/>
-      <c r="P50" s="247"/>
-      <c r="Q50" s="247"/>
-      <c r="R50" s="247"/>
-      <c r="S50" s="247"/>
-      <c r="T50" s="248"/>
+      <c r="J50" s="289"/>
+      <c r="K50" s="289"/>
+      <c r="L50" s="290"/>
+      <c r="M50" s="288" t="s">
+        <v>98</v>
+      </c>
+      <c r="N50" s="289"/>
+      <c r="O50" s="289"/>
+      <c r="P50" s="289"/>
+      <c r="Q50" s="289"/>
+      <c r="R50" s="289"/>
+      <c r="S50" s="289"/>
+      <c r="T50" s="290"/>
       <c r="U50" s="224" t="s">
         <v>33</v>
       </c>
@@ -7974,7 +7857,7 @@
       </c>
       <c r="AA50" s="225"/>
       <c r="AB50" s="226"/>
-      <c r="AC50" s="243" t="s">
+      <c r="AC50" s="285" t="s">
         <v>44</v>
       </c>
       <c r="AD50" s="227"/>
@@ -7995,24 +7878,24 @@
       <c r="AS50" s="116"/>
       <c r="AT50" s="116"/>
     </row>
-    <row r="51" spans="3:53" s="91" customFormat="1">
-      <c r="D51" s="245"/>
+    <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="287"/>
       <c r="E51" s="230"/>
       <c r="F51" s="231"/>
       <c r="G51" s="231"/>
       <c r="H51" s="232"/>
-      <c r="I51" s="249"/>
-      <c r="J51" s="250"/>
-      <c r="K51" s="250"/>
-      <c r="L51" s="251"/>
-      <c r="M51" s="249"/>
-      <c r="N51" s="250"/>
-      <c r="O51" s="250"/>
-      <c r="P51" s="250"/>
-      <c r="Q51" s="250"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="250"/>
-      <c r="T51" s="251"/>
+      <c r="I51" s="291"/>
+      <c r="J51" s="292"/>
+      <c r="K51" s="292"/>
+      <c r="L51" s="293"/>
+      <c r="M51" s="291"/>
+      <c r="N51" s="292"/>
+      <c r="O51" s="292"/>
+      <c r="P51" s="292"/>
+      <c r="Q51" s="292"/>
+      <c r="R51" s="292"/>
+      <c r="S51" s="292"/>
+      <c r="T51" s="293"/>
       <c r="U51" s="230"/>
       <c r="V51" s="231"/>
       <c r="W51" s="231"/>
@@ -8021,7 +7904,7 @@
       <c r="Z51" s="230"/>
       <c r="AA51" s="231"/>
       <c r="AB51" s="232"/>
-      <c r="AC51" s="245"/>
+      <c r="AC51" s="287"/>
       <c r="AD51" s="230"/>
       <c r="AE51" s="231"/>
       <c r="AF51" s="231"/>
@@ -8040,53 +7923,51 @@
       <c r="AS51" s="116"/>
       <c r="AT51" s="116"/>
     </row>
-    <row r="52" spans="3:53" s="91" customFormat="1" ht="32.25" customHeight="1">
+    <row r="52" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D52" s="121">
         <v>1</v>
       </c>
-      <c r="E52" s="165" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="236"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="254"/>
-      <c r="I52" s="255" t="s">
-        <v>138</v>
-      </c>
-      <c r="J52" s="256"/>
-      <c r="K52" s="256"/>
-      <c r="L52" s="256"/>
-      <c r="M52" s="263" t="s">
-        <v>139</v>
-      </c>
-      <c r="N52" s="264"/>
-      <c r="O52" s="264"/>
-      <c r="P52" s="264"/>
-      <c r="Q52" s="264"/>
-      <c r="R52" s="264"/>
-      <c r="S52" s="264"/>
-      <c r="T52" s="264"/>
-      <c r="U52" s="267" t="s">
-        <v>140</v>
-      </c>
-      <c r="V52" s="268"/>
-      <c r="W52" s="268"/>
-      <c r="X52" s="268"/>
-      <c r="Y52" s="268"/>
-      <c r="Z52" s="267" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA52" s="268"/>
-      <c r="AB52" s="268"/>
+      <c r="E52" s="172" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="173"/>
+      <c r="G52" s="173"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="302"/>
+      <c r="J52" s="303"/>
+      <c r="K52" s="303"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="299" t="s">
+        <v>122</v>
+      </c>
+      <c r="N52" s="300"/>
+      <c r="O52" s="300"/>
+      <c r="P52" s="300"/>
+      <c r="Q52" s="300"/>
+      <c r="R52" s="300"/>
+      <c r="S52" s="300"/>
+      <c r="T52" s="301"/>
+      <c r="U52" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="V52" s="170"/>
+      <c r="W52" s="170"/>
+      <c r="X52" s="170"/>
+      <c r="Y52" s="171"/>
+      <c r="Z52" s="283" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA52" s="284"/>
+      <c r="AB52" s="284"/>
       <c r="AC52" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD52" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="AE52" s="265"/>
-      <c r="AF52" s="265"/>
-      <c r="AG52" s="266"/>
+      <c r="AD52" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE52" s="242"/>
+      <c r="AF52" s="242"/>
+      <c r="AG52" s="243"/>
       <c r="AH52" s="116"/>
       <c r="AI52" s="116"/>
       <c r="AJ52" s="116"/>
@@ -8101,10 +7982,10 @@
       <c r="AS52" s="116"/>
       <c r="AT52" s="116"/>
     </row>
-    <row r="53" spans="3:53" ht="11.25" customHeight="1">
+    <row r="53" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AY53" s="107"/>
     </row>
-    <row r="54" spans="3:53">
+    <row r="54" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D54" s="112"/>
       <c r="E54" s="113"/>
       <c r="F54" s="117"/>
@@ -8146,7 +8027,7 @@
       <c r="AR54" s="104"/>
       <c r="AS54" s="104"/>
     </row>
-    <row r="55" spans="3:53">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C55" s="17" t="s">
         <v>66</v>
       </c>
@@ -8191,7 +8072,7 @@
       <c r="AR55" s="104"/>
       <c r="AS55" s="104"/>
     </row>
-    <row r="56" spans="3:53" ht="11.25" customHeight="1">
+    <row r="56" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI56" s="117"/>
       <c r="AJ56" s="117"/>
       <c r="AK56" s="104"/>
@@ -8208,25 +8089,25 @@
       <c r="AV56" s="104"/>
       <c r="AW56" s="104"/>
     </row>
-    <row r="57" spans="3:53">
-      <c r="D57" s="295" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="276" t="s">
+    <row r="57" spans="3:53" x14ac:dyDescent="0.15">
+      <c r="D57" s="244" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="277"/>
-      <c r="G57" s="277"/>
-      <c r="H57" s="277"/>
-      <c r="I57" s="277"/>
-      <c r="J57" s="278"/>
-      <c r="K57" s="276" t="s">
+      <c r="F57" s="247"/>
+      <c r="G57" s="247"/>
+      <c r="H57" s="247"/>
+      <c r="I57" s="247"/>
+      <c r="J57" s="248"/>
+      <c r="K57" s="246" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="277"/>
-      <c r="M57" s="277"/>
-      <c r="N57" s="278"/>
-      <c r="O57" s="298" t="s">
+      <c r="L57" s="247"/>
+      <c r="M57" s="247"/>
+      <c r="N57" s="248"/>
+      <c r="O57" s="254" t="s">
         <v>51</v>
       </c>
       <c r="P57" s="122" t="s">
@@ -8237,21 +8118,21 @@
       <c r="S57" s="123"/>
       <c r="T57" s="123"/>
       <c r="U57" s="123"/>
-      <c r="V57" s="276" t="s">
+      <c r="V57" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="W57" s="277"/>
-      <c r="X57" s="277"/>
-      <c r="Y57" s="277"/>
-      <c r="Z57" s="277"/>
-      <c r="AA57" s="277"/>
-      <c r="AB57" s="277"/>
-      <c r="AC57" s="277"/>
-      <c r="AD57" s="277"/>
-      <c r="AE57" s="277"/>
-      <c r="AF57" s="277"/>
-      <c r="AG57" s="277"/>
-      <c r="AH57" s="278"/>
+      <c r="W57" s="247"/>
+      <c r="X57" s="247"/>
+      <c r="Y57" s="247"/>
+      <c r="Z57" s="247"/>
+      <c r="AA57" s="247"/>
+      <c r="AB57" s="247"/>
+      <c r="AC57" s="247"/>
+      <c r="AD57" s="247"/>
+      <c r="AE57" s="247"/>
+      <c r="AF57" s="247"/>
+      <c r="AG57" s="247"/>
+      <c r="AH57" s="248"/>
       <c r="AK57" s="104"/>
       <c r="AL57" s="104"/>
       <c r="AM57" s="104"/>
@@ -8266,19 +8147,19 @@
       <c r="AV57" s="104"/>
       <c r="AW57" s="104"/>
     </row>
-    <row r="58" spans="3:53">
-      <c r="D58" s="296"/>
-      <c r="E58" s="279"/>
-      <c r="F58" s="280"/>
-      <c r="G58" s="280"/>
-      <c r="H58" s="280"/>
-      <c r="I58" s="280"/>
-      <c r="J58" s="281"/>
-      <c r="K58" s="279"/>
-      <c r="L58" s="280"/>
-      <c r="M58" s="280"/>
-      <c r="N58" s="281"/>
-      <c r="O58" s="299"/>
+    <row r="58" spans="3:53" x14ac:dyDescent="0.15">
+      <c r="D58" s="245"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="250"/>
+      <c r="G58" s="250"/>
+      <c r="H58" s="250"/>
+      <c r="I58" s="250"/>
+      <c r="J58" s="251"/>
+      <c r="K58" s="249"/>
+      <c r="L58" s="250"/>
+      <c r="M58" s="250"/>
+      <c r="N58" s="251"/>
+      <c r="O58" s="255"/>
       <c r="P58" s="124" t="s">
         <v>52</v>
       </c>
@@ -8291,23 +8172,23 @@
       <c r="S58" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="T58" s="282" t="s">
+      <c r="T58" s="263" t="s">
         <v>59</v>
       </c>
-      <c r="U58" s="283"/>
-      <c r="V58" s="279"/>
-      <c r="W58" s="280"/>
-      <c r="X58" s="280"/>
-      <c r="Y58" s="280"/>
-      <c r="Z58" s="280"/>
-      <c r="AA58" s="280"/>
-      <c r="AB58" s="280"/>
-      <c r="AC58" s="280"/>
-      <c r="AD58" s="280"/>
-      <c r="AE58" s="280"/>
-      <c r="AF58" s="280"/>
-      <c r="AG58" s="280"/>
-      <c r="AH58" s="281"/>
+      <c r="U58" s="264"/>
+      <c r="V58" s="249"/>
+      <c r="W58" s="250"/>
+      <c r="X58" s="250"/>
+      <c r="Y58" s="250"/>
+      <c r="Z58" s="250"/>
+      <c r="AA58" s="250"/>
+      <c r="AB58" s="250"/>
+      <c r="AC58" s="250"/>
+      <c r="AD58" s="250"/>
+      <c r="AE58" s="250"/>
+      <c r="AF58" s="250"/>
+      <c r="AG58" s="250"/>
+      <c r="AH58" s="251"/>
       <c r="AK58" s="104"/>
       <c r="AL58" s="104"/>
       <c r="AM58" s="104"/>
@@ -8322,24 +8203,24 @@
       <c r="AV58" s="104"/>
       <c r="AW58" s="104"/>
     </row>
-    <row r="59" spans="3:53">
+    <row r="59" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D59" s="125">
         <v>1</v>
       </c>
-      <c r="E59" s="302" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="303"/>
-      <c r="G59" s="303"/>
-      <c r="H59" s="303"/>
-      <c r="I59" s="303"/>
-      <c r="J59" s="304"/>
-      <c r="K59" s="162" t="s">
-        <v>112</v>
-      </c>
-      <c r="L59" s="265"/>
-      <c r="M59" s="265"/>
-      <c r="N59" s="266"/>
+      <c r="E59" s="260" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="261"/>
+      <c r="G59" s="261"/>
+      <c r="H59" s="261"/>
+      <c r="I59" s="261"/>
+      <c r="J59" s="262"/>
+      <c r="K59" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="L59" s="242"/>
+      <c r="M59" s="242"/>
+      <c r="N59" s="243"/>
       <c r="O59" s="120"/>
       <c r="P59" s="143" t="s">
         <v>83</v>
@@ -8353,25 +8234,25 @@
       <c r="S59" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="T59" s="293" t="s">
+      <c r="T59" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="U59" s="294"/>
-      <c r="V59" s="290" t="s">
+      <c r="U59" s="275"/>
+      <c r="V59" s="253" t="s">
         <v>75</v>
       </c>
-      <c r="W59" s="265"/>
-      <c r="X59" s="265"/>
-      <c r="Y59" s="265"/>
-      <c r="Z59" s="265"/>
-      <c r="AA59" s="265"/>
-      <c r="AB59" s="265"/>
-      <c r="AC59" s="265"/>
-      <c r="AD59" s="265"/>
-      <c r="AE59" s="265"/>
-      <c r="AF59" s="265"/>
-      <c r="AG59" s="265"/>
-      <c r="AH59" s="266"/>
+      <c r="W59" s="242"/>
+      <c r="X59" s="242"/>
+      <c r="Y59" s="242"/>
+      <c r="Z59" s="242"/>
+      <c r="AA59" s="242"/>
+      <c r="AB59" s="242"/>
+      <c r="AC59" s="242"/>
+      <c r="AD59" s="242"/>
+      <c r="AE59" s="242"/>
+      <c r="AF59" s="242"/>
+      <c r="AG59" s="242"/>
+      <c r="AH59" s="243"/>
       <c r="AK59" s="104"/>
       <c r="AL59" s="104"/>
       <c r="AM59" s="104"/>
@@ -8386,7 +8267,7 @@
       <c r="AV59" s="104"/>
       <c r="AW59" s="104"/>
     </row>
-    <row r="60" spans="3:53">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D60" s="115"/>
       <c r="E60" s="140"/>
       <c r="F60" s="140"/>
@@ -8434,7 +8315,7 @@
       <c r="AZ60" s="104"/>
       <c r="BA60" s="104"/>
     </row>
-    <row r="61" spans="3:53">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D61" s="112"/>
       <c r="E61" s="113"/>
       <c r="F61" s="117"/>
@@ -8478,7 +8359,7 @@
       <c r="AZ61" s="104"/>
       <c r="BA61" s="104"/>
     </row>
-    <row r="62" spans="3:53">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C62" s="17" t="s">
         <v>67</v>
       </c>
@@ -8492,264 +8373,217 @@
       <c r="AZ62" s="104"/>
       <c r="BA62" s="104"/>
     </row>
-    <row r="64" spans="3:53" ht="11.25" customHeight="1">
+    <row r="64" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="126"/>
       <c r="D64" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="300" t="s">
+      <c r="E64" s="256" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="291"/>
-      <c r="G64" s="291"/>
-      <c r="H64" s="291"/>
-      <c r="I64" s="291"/>
-      <c r="J64" s="301"/>
-      <c r="K64" s="300" t="s">
+      <c r="F64" s="257"/>
+      <c r="G64" s="257"/>
+      <c r="H64" s="257"/>
+      <c r="I64" s="257"/>
+      <c r="J64" s="258"/>
+      <c r="K64" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="L64" s="291"/>
-      <c r="M64" s="291"/>
-      <c r="N64" s="291"/>
-      <c r="O64" s="291"/>
-      <c r="P64" s="291"/>
-      <c r="Q64" s="292"/>
+      <c r="L64" s="257"/>
+      <c r="M64" s="257"/>
+      <c r="N64" s="257"/>
+      <c r="O64" s="257"/>
+      <c r="P64" s="257"/>
+      <c r="Q64" s="259"/>
       <c r="R64" s="233" t="s">
         <v>71</v>
       </c>
-      <c r="S64" s="291"/>
-      <c r="T64" s="291"/>
-      <c r="U64" s="291"/>
-      <c r="V64" s="291"/>
-      <c r="W64" s="291"/>
-      <c r="X64" s="291"/>
-      <c r="Y64" s="292"/>
-      <c r="Z64" s="258" t="s">
+      <c r="S64" s="257"/>
+      <c r="T64" s="257"/>
+      <c r="U64" s="257"/>
+      <c r="V64" s="257"/>
+      <c r="W64" s="257"/>
+      <c r="X64" s="257"/>
+      <c r="Y64" s="259"/>
+      <c r="Z64" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="AA64" s="259"/>
-      <c r="AB64" s="259"/>
-      <c r="AC64" s="259"/>
-      <c r="AD64" s="260"/>
-      <c r="AE64" s="287" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF64" s="288"/>
-      <c r="AG64" s="288"/>
-      <c r="AH64" s="289"/>
-    </row>
-    <row r="65" spans="1:58" ht="27" customHeight="1">
+      <c r="AA64" s="269"/>
+      <c r="AB64" s="269"/>
+      <c r="AC64" s="269"/>
+      <c r="AD64" s="270"/>
+      <c r="AE64" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF64" s="266"/>
+      <c r="AG64" s="266"/>
+      <c r="AH64" s="267"/>
+    </row>
+    <row r="65" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="128">
         <v>1</v>
       </c>
-      <c r="E65" s="297" t="s">
+      <c r="E65" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="285"/>
-      <c r="G65" s="285"/>
-      <c r="H65" s="285"/>
-      <c r="I65" s="285"/>
-      <c r="J65" s="286"/>
-      <c r="K65" s="290" t="s">
+      <c r="F65" s="240"/>
+      <c r="G65" s="240"/>
+      <c r="H65" s="240"/>
+      <c r="I65" s="240"/>
+      <c r="J65" s="241"/>
+      <c r="K65" s="253" t="s">
         <v>86</v>
       </c>
-      <c r="L65" s="265"/>
-      <c r="M65" s="265"/>
-      <c r="N65" s="265"/>
-      <c r="O65" s="265"/>
-      <c r="P65" s="265"/>
-      <c r="Q65" s="266"/>
-      <c r="R65" s="162" t="s">
-        <v>115</v>
-      </c>
-      <c r="S65" s="265"/>
-      <c r="T65" s="265"/>
-      <c r="U65" s="265"/>
-      <c r="V65" s="265"/>
-      <c r="W65" s="265"/>
-      <c r="X65" s="265"/>
-      <c r="Y65" s="266"/>
-      <c r="Z65" s="290" t="s">
+      <c r="L65" s="242"/>
+      <c r="M65" s="242"/>
+      <c r="N65" s="242"/>
+      <c r="O65" s="242"/>
+      <c r="P65" s="242"/>
+      <c r="Q65" s="243"/>
+      <c r="R65" s="169" t="s">
+        <v>123</v>
+      </c>
+      <c r="S65" s="242"/>
+      <c r="T65" s="242"/>
+      <c r="U65" s="242"/>
+      <c r="V65" s="242"/>
+      <c r="W65" s="242"/>
+      <c r="X65" s="242"/>
+      <c r="Y65" s="243"/>
+      <c r="Z65" s="253" t="s">
         <v>84</v>
       </c>
-      <c r="AA65" s="265"/>
-      <c r="AB65" s="265"/>
-      <c r="AC65" s="265"/>
-      <c r="AD65" s="266"/>
-      <c r="AE65" s="240" t="s">
+      <c r="AA65" s="242"/>
+      <c r="AB65" s="242"/>
+      <c r="AC65" s="242"/>
+      <c r="AD65" s="243"/>
+      <c r="AE65" s="271" t="s">
         <v>69</v>
       </c>
-      <c r="AF65" s="241"/>
-      <c r="AG65" s="241"/>
-      <c r="AH65" s="242"/>
-    </row>
-    <row r="66" spans="1:58" ht="27" customHeight="1">
-      <c r="D66" s="128">
-        <v>2</v>
-      </c>
-      <c r="E66" s="284" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="285"/>
-      <c r="G66" s="285"/>
-      <c r="H66" s="285"/>
-      <c r="I66" s="285"/>
-      <c r="J66" s="286"/>
-      <c r="K66" s="162" t="s">
-        <v>133</v>
-      </c>
-      <c r="L66" s="265"/>
-      <c r="M66" s="265"/>
-      <c r="N66" s="265"/>
-      <c r="O66" s="265"/>
-      <c r="P66" s="265"/>
-      <c r="Q66" s="266"/>
-      <c r="R66" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="S66" s="265"/>
-      <c r="T66" s="265"/>
-      <c r="U66" s="265"/>
-      <c r="V66" s="265"/>
-      <c r="W66" s="265"/>
-      <c r="X66" s="265"/>
-      <c r="Y66" s="266"/>
-      <c r="Z66" s="284" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA66" s="285"/>
-      <c r="AB66" s="285"/>
-      <c r="AC66" s="285"/>
-      <c r="AD66" s="286"/>
-      <c r="AE66" s="240" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF66" s="241"/>
-      <c r="AG66" s="241"/>
-      <c r="AH66" s="242"/>
-    </row>
-    <row r="67" spans="1:58" ht="27" customHeight="1">
-      <c r="D67" s="128">
-        <v>3</v>
-      </c>
-      <c r="E67" s="284" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="285"/>
-      <c r="G67" s="285"/>
-      <c r="H67" s="285"/>
-      <c r="I67" s="285"/>
-      <c r="J67" s="286"/>
-      <c r="K67" s="162" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="265"/>
-      <c r="M67" s="265"/>
-      <c r="N67" s="265"/>
-      <c r="O67" s="265"/>
-      <c r="P67" s="265"/>
-      <c r="Q67" s="266"/>
-      <c r="R67" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="S67" s="265"/>
-      <c r="T67" s="265"/>
-      <c r="U67" s="265"/>
-      <c r="V67" s="265"/>
-      <c r="W67" s="265"/>
-      <c r="X67" s="265"/>
-      <c r="Y67" s="266"/>
-      <c r="Z67" s="162" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA67" s="265"/>
-      <c r="AB67" s="265"/>
-      <c r="AC67" s="265"/>
-      <c r="AD67" s="266"/>
-      <c r="AE67" s="240" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF67" s="241"/>
-      <c r="AG67" s="241"/>
-      <c r="AH67" s="242"/>
+      <c r="AF65" s="272"/>
+      <c r="AG65" s="272"/>
+      <c r="AH65" s="273"/>
+    </row>
+    <row r="66" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="111"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="131"/>
+      <c r="K66" s="138"/>
+      <c r="L66" s="138"/>
+      <c r="M66" s="138"/>
+      <c r="N66" s="138"/>
+      <c r="O66" s="138"/>
+      <c r="P66" s="138"/>
+      <c r="Q66" s="138"/>
+      <c r="R66" s="138"/>
+      <c r="S66" s="138"/>
+      <c r="T66" s="138"/>
+      <c r="U66" s="138"/>
+      <c r="V66" s="138"/>
+      <c r="W66" s="138"/>
+      <c r="X66" s="138"/>
+      <c r="Y66" s="138"/>
+      <c r="Z66" s="138"/>
+      <c r="AA66" s="138"/>
+      <c r="AB66" s="138"/>
+      <c r="AC66" s="138"/>
+      <c r="AD66" s="138"/>
+      <c r="AE66" s="138"/>
+      <c r="AF66" s="138"/>
+      <c r="AG66" s="138"/>
+      <c r="AH66" s="118"/>
+      <c r="AN66" s="29"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="29"/>
+    </row>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="104"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+      <c r="AA67" s="104"/>
+      <c r="AB67" s="104"/>
+      <c r="AC67" s="104"/>
+      <c r="AD67" s="104"/>
+      <c r="AE67" s="138"/>
+      <c r="AF67" s="138"/>
+      <c r="AG67" s="138"/>
+      <c r="AH67" s="104"/>
+      <c r="AI67" s="104"/>
       <c r="AN67" s="104"/>
       <c r="AO67" s="104"/>
       <c r="AP67" s="104"/>
-    </row>
-    <row r="68" spans="1:58" s="107" customFormat="1">
-      <c r="D68" s="111"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="131"/>
-      <c r="K68" s="138"/>
-      <c r="L68" s="138"/>
-      <c r="M68" s="138"/>
-      <c r="N68" s="138"/>
-      <c r="O68" s="138"/>
-      <c r="P68" s="138"/>
-      <c r="Q68" s="138"/>
-      <c r="R68" s="138"/>
-      <c r="S68" s="138"/>
-      <c r="T68" s="138"/>
-      <c r="U68" s="138"/>
-      <c r="V68" s="138"/>
-      <c r="W68" s="138"/>
-      <c r="X68" s="138"/>
-      <c r="Y68" s="138"/>
-      <c r="Z68" s="138"/>
-      <c r="AA68" s="138"/>
-      <c r="AB68" s="138"/>
-      <c r="AC68" s="138"/>
-      <c r="AD68" s="138"/>
+      <c r="AQ67" s="104"/>
+      <c r="AR67" s="104"/>
+      <c r="AS67" s="104"/>
+      <c r="AT67" s="104"/>
+      <c r="AU67" s="104"/>
+      <c r="AV67" s="104"/>
+      <c r="AW67" s="104"/>
+      <c r="AX67" s="104"/>
+      <c r="AY67" s="104"/>
+      <c r="AZ67" s="104"/>
+      <c r="BA67" s="104"/>
+      <c r="BB67" s="104"/>
+    </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="C68" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="G68" s="53"/>
+      <c r="I68" s="106"/>
       <c r="AE68" s="138"/>
-      <c r="AF68" s="138"/>
       <c r="AG68" s="138"/>
-      <c r="AH68" s="118"/>
-      <c r="AN68" s="29"/>
-      <c r="AO68" s="29"/>
-      <c r="AP68" s="29"/>
-    </row>
-    <row r="69" spans="1:58">
-      <c r="A69" s="104"/>
-      <c r="B69" s="104"/>
+      <c r="AP68" s="104"/>
+      <c r="AQ68" s="104"/>
+      <c r="AR68" s="104"/>
+      <c r="AS68" s="104"/>
+      <c r="AT68" s="104"/>
+      <c r="AU68" s="104"/>
+      <c r="AV68" s="104"/>
+      <c r="AW68" s="104"/>
+      <c r="AX68" s="104"/>
+      <c r="AY68" s="104"/>
+      <c r="AZ68" s="104"/>
+      <c r="BA68" s="104"/>
+      <c r="BB68" s="104"/>
+      <c r="BC68" s="104"/>
+      <c r="BD68" s="104"/>
+    </row>
+    <row r="69" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="104"/>
-      <c r="L69" s="104"/>
-      <c r="M69" s="104"/>
-      <c r="N69" s="104"/>
-      <c r="O69" s="104"/>
-      <c r="P69" s="104"/>
-      <c r="Q69" s="104"/>
-      <c r="R69" s="104"/>
-      <c r="S69" s="104"/>
-      <c r="T69" s="104"/>
-      <c r="U69" s="104"/>
-      <c r="V69" s="104"/>
-      <c r="W69" s="104"/>
-      <c r="X69" s="104"/>
-      <c r="Y69" s="104"/>
-      <c r="Z69" s="104"/>
-      <c r="AA69" s="104"/>
-      <c r="AB69" s="104"/>
-      <c r="AC69" s="104"/>
-      <c r="AD69" s="104"/>
-      <c r="AE69" s="138"/>
-      <c r="AF69" s="138"/>
-      <c r="AG69" s="138"/>
-      <c r="AH69" s="104"/>
-      <c r="AI69" s="104"/>
-      <c r="AN69" s="104"/>
-      <c r="AO69" s="104"/>
+      <c r="D69" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="105"/>
       <c r="AP69" s="104"/>
       <c r="AQ69" s="104"/>
       <c r="AR69" s="104"/>
@@ -8763,17 +8597,13 @@
       <c r="AZ69" s="104"/>
       <c r="BA69" s="104"/>
       <c r="BB69" s="104"/>
-    </row>
-    <row r="70" spans="1:58">
-      <c r="C70" s="104" t="s">
-        <v>65</v>
-      </c>
+      <c r="BC69" s="104"/>
+      <c r="BD69" s="104"/>
+    </row>
+    <row r="70" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="104"/>
       <c r="D70" s="105"/>
       <c r="E70" s="105"/>
-      <c r="G70" s="53"/>
-      <c r="I70" s="106"/>
-      <c r="AE70" s="138"/>
-      <c r="AG70" s="138"/>
       <c r="AP70" s="104"/>
       <c r="AQ70" s="104"/>
       <c r="AR70" s="104"/>
@@ -8790,119 +8620,132 @@
       <c r="BC70" s="104"/>
       <c r="BD70" s="104"/>
     </row>
-    <row r="71" spans="1:58" ht="11.25" customHeight="1">
-      <c r="C71" s="104"/>
-      <c r="D71" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="105"/>
-      <c r="AP71" s="104"/>
-      <c r="AQ71" s="104"/>
-      <c r="AR71" s="104"/>
-      <c r="AS71" s="104"/>
-      <c r="AT71" s="104"/>
-      <c r="AU71" s="104"/>
-      <c r="AV71" s="104"/>
-      <c r="AW71" s="104"/>
-      <c r="AX71" s="104"/>
-      <c r="AY71" s="104"/>
-      <c r="AZ71" s="104"/>
-      <c r="BA71" s="104"/>
-      <c r="BB71" s="104"/>
-      <c r="BC71" s="104"/>
-      <c r="BD71" s="104"/>
-    </row>
-    <row r="72" spans="1:58" ht="11.25" customHeight="1">
+    <row r="71" spans="1:58" s="107" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="29"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP71" s="29"/>
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C72" s="104"/>
       <c r="D72" s="105"/>
       <c r="E72" s="105"/>
-      <c r="AP72" s="104"/>
-      <c r="AQ72" s="104"/>
-      <c r="AR72" s="104"/>
-      <c r="AS72" s="104"/>
-      <c r="AT72" s="104"/>
-      <c r="AU72" s="104"/>
-      <c r="AV72" s="104"/>
-      <c r="AW72" s="104"/>
-      <c r="AX72" s="104"/>
-      <c r="AY72" s="104"/>
-      <c r="AZ72" s="104"/>
-      <c r="BA72" s="104"/>
-      <c r="BB72" s="104"/>
-      <c r="BC72" s="104"/>
-      <c r="BD72" s="104"/>
-    </row>
-    <row r="73" spans="1:58" s="107" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C73" s="29"/>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="104"/>
       <c r="D73" s="105"/>
-      <c r="E73" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP73" s="29"/>
-    </row>
-    <row r="74" spans="1:58">
-      <c r="C74" s="104"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-    </row>
-    <row r="75" spans="1:58" ht="11.25" customHeight="1">
+      <c r="E73" s="105"/>
+      <c r="F73" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP73" s="104"/>
+    </row>
+    <row r="74" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="29"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="G74" s="132"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="132"/>
+      <c r="N74" s="132"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="132"/>
+      <c r="Q74" s="132"/>
+      <c r="R74" s="132"/>
+      <c r="S74" s="132"/>
+      <c r="T74" s="132"/>
+      <c r="U74" s="132"/>
+      <c r="V74" s="132"/>
+      <c r="W74" s="132"/>
+      <c r="X74" s="132"/>
+      <c r="Y74" s="132"/>
+      <c r="Z74" s="132"/>
+      <c r="AA74" s="132"/>
+      <c r="AB74" s="132"/>
+      <c r="AC74" s="132"/>
+      <c r="AD74" s="130"/>
+      <c r="AE74" s="130"/>
+      <c r="AF74" s="130"/>
+      <c r="AG74" s="130"/>
+      <c r="AH74" s="130"/>
+      <c r="AI74" s="130"/>
+      <c r="AJ74" s="113"/>
+    </row>
+    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="104"/>
       <c r="D75" s="105"/>
       <c r="E75" s="105"/>
-      <c r="F75" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="AP75" s="104"/>
     </row>
-    <row r="76" spans="1:58" s="107" customFormat="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="132"/>
-      <c r="J76" s="132"/>
-      <c r="K76" s="132"/>
-      <c r="L76" s="132"/>
-      <c r="M76" s="132"/>
-      <c r="N76" s="132"/>
-      <c r="O76" s="132"/>
-      <c r="P76" s="132"/>
-      <c r="Q76" s="132"/>
-      <c r="R76" s="132"/>
-      <c r="S76" s="132"/>
-      <c r="T76" s="132"/>
-      <c r="U76" s="132"/>
-      <c r="V76" s="132"/>
-      <c r="W76" s="132"/>
-      <c r="X76" s="132"/>
-      <c r="Y76" s="132"/>
-      <c r="Z76" s="132"/>
-      <c r="AA76" s="132"/>
-      <c r="AB76" s="132"/>
-      <c r="AC76" s="132"/>
-      <c r="AD76" s="130"/>
-      <c r="AE76" s="130"/>
-      <c r="AF76" s="130"/>
-      <c r="AG76" s="130"/>
-      <c r="AH76" s="130"/>
-      <c r="AI76" s="130"/>
-      <c r="AJ76" s="113"/>
-    </row>
-    <row r="77" spans="1:58" ht="11.25" customHeight="1">
-      <c r="C77" s="104"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="105"/>
-      <c r="AP77" s="104"/>
-    </row>
-    <row r="78" spans="1:58">
-      <c r="E78" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G78" s="106"/>
+    <row r="76" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E76" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="106"/>
+      <c r="AJ76" s="108"/>
+      <c r="AK76" s="108"/>
+      <c r="AL76" s="108"/>
+      <c r="AM76" s="108"/>
+      <c r="AN76" s="108"/>
+      <c r="AO76" s="108"/>
+      <c r="AP76" s="108"/>
+      <c r="AQ76" s="108"/>
+      <c r="AR76" s="108"/>
+      <c r="AS76" s="108"/>
+      <c r="AT76" s="108"/>
+      <c r="AU76" s="108"/>
+      <c r="AV76" s="108"/>
+      <c r="AW76" s="108"/>
+      <c r="AX76" s="108"/>
+      <c r="AY76" s="108"/>
+      <c r="AZ76" s="108"/>
+      <c r="BA76" s="108"/>
+      <c r="BB76" s="108"/>
+      <c r="BC76" s="108"/>
+      <c r="BD76" s="108"/>
+      <c r="BE76" s="108"/>
+      <c r="BF76" s="108"/>
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="H77" s="106"/>
+      <c r="AJ77" s="108"/>
+      <c r="AK77" s="108"/>
+      <c r="AL77" s="108"/>
+      <c r="AM77" s="108"/>
+      <c r="AN77" s="108"/>
+      <c r="AO77" s="108"/>
+      <c r="AP77" s="108"/>
+      <c r="AQ77" s="108"/>
+      <c r="AR77" s="108"/>
+      <c r="AS77" s="108"/>
+      <c r="AT77" s="108"/>
+      <c r="AU77" s="108"/>
+      <c r="AV77" s="108"/>
+      <c r="AW77" s="108"/>
+      <c r="AX77" s="108"/>
+      <c r="AY77" s="108"/>
+      <c r="AZ77" s="108"/>
+      <c r="BA77" s="108"/>
+      <c r="BB77" s="108"/>
+      <c r="BC77" s="108"/>
+      <c r="BD77" s="108"/>
+      <c r="BE77" s="108"/>
+      <c r="BF77" s="108"/>
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E78" s="109"/>
+      <c r="F78" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="AJ78" s="108"/>
       <c r="AK78" s="108"/>
       <c r="AL78" s="108"/>
@@ -8927,8 +8770,10 @@
       <c r="BE78" s="108"/>
       <c r="BF78" s="108"/>
     </row>
-    <row r="79" spans="1:58">
-      <c r="H79" s="106"/>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.15">
+      <c r="E79" s="109"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="71"/>
       <c r="AJ79" s="108"/>
       <c r="AK79" s="108"/>
       <c r="AL79" s="108"/>
@@ -8953,11 +8798,8 @@
       <c r="BE79" s="108"/>
       <c r="BF79" s="108"/>
     </row>
-    <row r="80" spans="1:58">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E80" s="109"/>
-      <c r="F80" s="71" t="s">
-        <v>141</v>
-      </c>
       <c r="AJ80" s="108"/>
       <c r="AK80" s="108"/>
       <c r="AL80" s="108"/>
@@ -8982,270 +8824,33 @@
       <c r="BE80" s="108"/>
       <c r="BF80" s="108"/>
     </row>
-    <row r="81" spans="1:58">
-      <c r="E81" s="109"/>
-      <c r="F81" s="110"/>
-      <c r="G81" s="71"/>
-      <c r="AJ81" s="108"/>
-      <c r="AK81" s="108"/>
-      <c r="AL81" s="108"/>
-      <c r="AM81" s="108"/>
-      <c r="AN81" s="108"/>
-      <c r="AO81" s="108"/>
-      <c r="AP81" s="108"/>
-      <c r="AQ81" s="108"/>
-      <c r="AR81" s="108"/>
-      <c r="AS81" s="108"/>
-      <c r="AT81" s="108"/>
-      <c r="AU81" s="108"/>
-      <c r="AV81" s="108"/>
-      <c r="AW81" s="108"/>
-      <c r="AX81" s="108"/>
-      <c r="AY81" s="108"/>
-      <c r="AZ81" s="108"/>
-      <c r="BA81" s="108"/>
-      <c r="BB81" s="108"/>
-      <c r="BC81" s="108"/>
-      <c r="BD81" s="108"/>
-      <c r="BE81" s="108"/>
-      <c r="BF81" s="108"/>
-    </row>
-    <row r="82" spans="1:58">
-      <c r="E82" s="109"/>
-      <c r="AJ82" s="108"/>
-      <c r="AK82" s="108"/>
-      <c r="AL82" s="108"/>
-      <c r="AM82" s="108"/>
-      <c r="AN82" s="108"/>
-      <c r="AO82" s="108"/>
-      <c r="AP82" s="108"/>
-      <c r="AQ82" s="108"/>
-      <c r="AR82" s="108"/>
-      <c r="AS82" s="108"/>
-      <c r="AT82" s="108"/>
-      <c r="AU82" s="108"/>
-      <c r="AV82" s="108"/>
-      <c r="AW82" s="108"/>
-      <c r="AX82" s="108"/>
-      <c r="AY82" s="108"/>
-      <c r="AZ82" s="108"/>
-      <c r="BA82" s="108"/>
-      <c r="BB82" s="108"/>
-      <c r="BC82" s="108"/>
-      <c r="BD82" s="108"/>
-      <c r="BE82" s="108"/>
-      <c r="BF82" s="108"/>
-    </row>
-    <row r="83" spans="1:58">
-      <c r="D83" s="103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:58">
-      <c r="E85" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:58">
-      <c r="F87" s="103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:58" s="107" customFormat="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="106"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="G88" s="132"/>
-      <c r="H88" s="132"/>
-      <c r="I88" s="132"/>
-      <c r="J88" s="132"/>
-      <c r="K88" s="132"/>
-      <c r="L88" s="132"/>
-      <c r="M88" s="132"/>
-      <c r="N88" s="132"/>
-      <c r="O88" s="132"/>
-      <c r="P88" s="132"/>
-      <c r="Q88" s="132"/>
-      <c r="R88" s="132"/>
-      <c r="S88" s="132"/>
-      <c r="T88" s="132"/>
-      <c r="U88" s="132"/>
-      <c r="V88" s="132"/>
-      <c r="W88" s="132"/>
-      <c r="X88" s="132"/>
-      <c r="Y88" s="132"/>
-      <c r="Z88" s="132"/>
-      <c r="AA88" s="132"/>
-      <c r="AB88" s="132"/>
-      <c r="AC88" s="132"/>
-      <c r="AD88" s="130"/>
-      <c r="AE88" s="130"/>
-      <c r="AF88" s="130"/>
-      <c r="AG88" s="130"/>
-      <c r="AH88" s="130"/>
-      <c r="AI88" s="130"/>
-      <c r="AJ88" s="113"/>
-    </row>
-    <row r="89" spans="1:58">
-      <c r="E89" s="109"/>
-      <c r="AJ89" s="108"/>
-      <c r="AK89" s="108"/>
-      <c r="AL89" s="108"/>
-      <c r="AM89" s="108"/>
-      <c r="AN89" s="108"/>
-      <c r="AO89" s="108"/>
-      <c r="AP89" s="108"/>
-      <c r="AQ89" s="108"/>
-      <c r="AR89" s="108"/>
-      <c r="AS89" s="108"/>
-      <c r="AT89" s="108"/>
-      <c r="AU89" s="108"/>
-      <c r="AV89" s="108"/>
-      <c r="AW89" s="108"/>
-      <c r="AX89" s="108"/>
-      <c r="AY89" s="108"/>
-      <c r="AZ89" s="108"/>
-      <c r="BA89" s="108"/>
-      <c r="BB89" s="108"/>
-      <c r="BC89" s="108"/>
-      <c r="BD89" s="108"/>
-      <c r="BE89" s="108"/>
-      <c r="BF89" s="108"/>
-    </row>
-    <row r="90" spans="1:58">
-      <c r="D90" s="103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:58">
-      <c r="E92" s="103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:58">
-      <c r="F94" s="103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:58">
-      <c r="F95" s="103"/>
-    </row>
-    <row r="96" spans="1:58" s="107" customFormat="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="G96" s="132"/>
-      <c r="H96" s="132"/>
-      <c r="I96" s="132"/>
-      <c r="J96" s="132"/>
-      <c r="K96" s="132"/>
-      <c r="L96" s="132"/>
-      <c r="M96" s="132"/>
-      <c r="N96" s="132"/>
-      <c r="O96" s="132"/>
-      <c r="P96" s="132"/>
-      <c r="Q96" s="132"/>
-      <c r="R96" s="132"/>
-      <c r="S96" s="132"/>
-      <c r="T96" s="132"/>
-      <c r="U96" s="132"/>
-      <c r="V96" s="132"/>
-      <c r="W96" s="132"/>
-      <c r="X96" s="132"/>
-      <c r="Y96" s="132"/>
-      <c r="Z96" s="132"/>
-      <c r="AA96" s="132"/>
-      <c r="AB96" s="132"/>
-      <c r="AC96" s="132"/>
-      <c r="AD96" s="130"/>
-      <c r="AE96" s="130"/>
-      <c r="AF96" s="130"/>
-      <c r="AG96" s="130"/>
-      <c r="AH96" s="130"/>
-      <c r="AI96" s="130"/>
-      <c r="AJ96" s="113"/>
-    </row>
-    <row r="97" spans="1:36">
-      <c r="E97" s="103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:36">
-      <c r="F99" s="103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:36" s="107" customFormat="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="G100" s="132"/>
-      <c r="H100" s="132"/>
-      <c r="I100" s="132"/>
-      <c r="J100" s="132"/>
-      <c r="K100" s="132"/>
-      <c r="L100" s="132"/>
-      <c r="M100" s="132"/>
-      <c r="N100" s="132"/>
-      <c r="O100" s="132"/>
-      <c r="P100" s="132"/>
-      <c r="Q100" s="132"/>
-      <c r="R100" s="132"/>
-      <c r="S100" s="132"/>
-      <c r="T100" s="132"/>
-      <c r="U100" s="132"/>
-      <c r="V100" s="132"/>
-      <c r="W100" s="132"/>
-      <c r="X100" s="132"/>
-      <c r="Y100" s="132"/>
-      <c r="Z100" s="132"/>
-      <c r="AA100" s="132"/>
-      <c r="AB100" s="132"/>
-      <c r="AC100" s="132"/>
-      <c r="AD100" s="130"/>
-      <c r="AE100" s="130"/>
-      <c r="AF100" s="130"/>
-      <c r="AG100" s="130"/>
-      <c r="AH100" s="130"/>
-      <c r="AI100" s="130"/>
-      <c r="AJ100" s="113"/>
-    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:AH59"/>
+  <mergeCells count="60">
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9262,32 +8867,25 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:AH59"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -9309,13 +8907,13 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="40" max="33" man="1"/>
-    <brk id="69" max="16383" man="1"/>
+    <brk id="67" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -9326,7 +8924,7 @@
           <x14:formula1>
             <xm:f>データ!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AH68 AE65:AH67</xm:sqref>
+          <xm:sqref>AH66 AE65:AH65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9343,7 +8941,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>
@@ -9352,7 +8950,7 @@
     <col min="5" max="16384" width="9.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>12</v>
       </c>
@@ -9363,15 +8961,15 @@
         <v>74</v>
       </c>
       <c r="D1" s="82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="79" t="s">
-        <v>108</v>
-      </c>
       <c r="B2" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>75</v>
@@ -9380,12 +8978,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="79" t="s">
         <v>76</v>
@@ -9394,12 +8992,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="79" t="s">
         <v>77</v>
@@ -9408,18 +9006,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="79" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
         <v>19</v>
       </c>
@@ -9427,7 +9025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="79" t="s">
         <v>20</v>
       </c>
@@ -9435,27 +9033,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="79" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="79" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="79" t="s">
         <v>25</v>
       </c>

--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10104_汎用エラー.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10104_汎用エラー.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
   <si>
     <t>PJ名</t>
   </si>
@@ -1058,15 +1058,12 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>予期せぬエラーが発生した旨をユーザに表示する。</t>
+    <t>発生したエラーの内容をユーザに表示する。</t>
     <rPh sb="0" eb="2">
-      <t>ヨキ</t>
+      <t>ハッセイ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ムネ</t>
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -2354,46 +2351,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2417,29 +2390,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2450,39 +2480,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2516,6 +2513,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2533,15 +2539,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7317,12 +7314,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="281"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="276"/>
       <c r="E1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -7365,21 +7362,21 @@
       <c r="AD1" s="149"/>
       <c r="AE1" s="149"/>
       <c r="AF1" s="150"/>
-      <c r="AG1" s="276">
+      <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="277"/>
-      <c r="AI1" s="278"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="273"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="281"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
       <c r="E2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -7416,21 +7413,21 @@
       <c r="AD2" s="149"/>
       <c r="AE2" s="149"/>
       <c r="AF2" s="150"/>
-      <c r="AG2" s="276" t="str">
+      <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="278"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="273"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="281"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -7465,12 +7462,12 @@
       <c r="AD3" s="149"/>
       <c r="AE3" s="149"/>
       <c r="AF3" s="150"/>
-      <c r="AG3" s="276" t="str">
+      <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="277"/>
-      <c r="AI3" s="278"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="273"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7622,39 +7619,39 @@
       <c r="D43" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="282" t="s">
+      <c r="E43" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="282"/>
-      <c r="G43" s="282"/>
-      <c r="H43" s="282"/>
-      <c r="I43" s="282"/>
-      <c r="J43" s="282"/>
-      <c r="K43" s="282"/>
-      <c r="L43" s="282"/>
-      <c r="M43" s="282"/>
-      <c r="N43" s="282" t="s">
+      <c r="F43" s="279"/>
+      <c r="G43" s="279"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="279"/>
+      <c r="J43" s="279"/>
+      <c r="K43" s="279"/>
+      <c r="L43" s="279"/>
+      <c r="M43" s="279"/>
+      <c r="N43" s="279" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="282"/>
-      <c r="P43" s="282"/>
-      <c r="Q43" s="282" t="s">
+      <c r="O43" s="279"/>
+      <c r="P43" s="279"/>
+      <c r="Q43" s="279" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="282"/>
-      <c r="S43" s="282"/>
-      <c r="T43" s="282"/>
-      <c r="U43" s="282"/>
-      <c r="V43" s="282" t="s">
+      <c r="R43" s="279"/>
+      <c r="S43" s="279"/>
+      <c r="T43" s="279"/>
+      <c r="U43" s="279"/>
+      <c r="V43" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="W43" s="282"/>
-      <c r="X43" s="282"/>
-      <c r="Y43" s="282"/>
-      <c r="Z43" s="282"/>
-      <c r="AA43" s="282"/>
-      <c r="AB43" s="282"/>
-      <c r="AC43" s="282"/>
+      <c r="W43" s="279"/>
+      <c r="X43" s="279"/>
+      <c r="Y43" s="279"/>
+      <c r="Z43" s="279"/>
+      <c r="AA43" s="279"/>
+      <c r="AB43" s="279"/>
+      <c r="AC43" s="279"/>
       <c r="AD43" s="118"/>
       <c r="AE43" s="118"/>
       <c r="AF43" s="118"/>
@@ -7665,22 +7662,22 @@
       <c r="D44" s="134">
         <v>1</v>
       </c>
-      <c r="E44" s="297" t="s">
+      <c r="E44" s="300" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="298"/>
-      <c r="G44" s="298"/>
-      <c r="H44" s="298"/>
-      <c r="I44" s="298"/>
-      <c r="J44" s="298"/>
-      <c r="K44" s="298"/>
-      <c r="L44" s="298"/>
-      <c r="M44" s="298"/>
-      <c r="N44" s="298" t="s">
+      <c r="F44" s="301"/>
+      <c r="G44" s="301"/>
+      <c r="H44" s="301"/>
+      <c r="I44" s="301"/>
+      <c r="J44" s="301"/>
+      <c r="K44" s="301"/>
+      <c r="L44" s="301"/>
+      <c r="M44" s="301"/>
+      <c r="N44" s="301" t="s">
         <v>83</v>
       </c>
-      <c r="O44" s="298"/>
-      <c r="P44" s="298"/>
+      <c r="O44" s="301"/>
+      <c r="P44" s="301"/>
       <c r="Q44" s="294" t="s">
         <v>95</v>
       </c>
@@ -7829,7 +7826,7 @@
       <c r="F50" s="225"/>
       <c r="G50" s="225"/>
       <c r="H50" s="226"/>
-      <c r="I50" s="296" t="s">
+      <c r="I50" s="299" t="s">
         <v>40</v>
       </c>
       <c r="J50" s="289"/>
@@ -7933,20 +7930,22 @@
       <c r="F52" s="173"/>
       <c r="G52" s="173"/>
       <c r="H52" s="174"/>
-      <c r="I52" s="302"/>
-      <c r="J52" s="303"/>
-      <c r="K52" s="303"/>
-      <c r="L52" s="304"/>
-      <c r="M52" s="299" t="s">
+      <c r="I52" s="296" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="297"/>
+      <c r="K52" s="297"/>
+      <c r="L52" s="298"/>
+      <c r="M52" s="302" t="s">
         <v>122</v>
       </c>
-      <c r="N52" s="300"/>
-      <c r="O52" s="300"/>
-      <c r="P52" s="300"/>
-      <c r="Q52" s="300"/>
-      <c r="R52" s="300"/>
-      <c r="S52" s="300"/>
-      <c r="T52" s="301"/>
+      <c r="N52" s="303"/>
+      <c r="O52" s="303"/>
+      <c r="P52" s="303"/>
+      <c r="Q52" s="303"/>
+      <c r="R52" s="303"/>
+      <c r="S52" s="303"/>
+      <c r="T52" s="304"/>
       <c r="U52" s="169" t="s">
         <v>122</v>
       </c>
@@ -7954,20 +7953,20 @@
       <c r="W52" s="170"/>
       <c r="X52" s="170"/>
       <c r="Y52" s="171"/>
-      <c r="Z52" s="283" t="s">
+      <c r="Z52" s="280" t="s">
         <v>109</v>
       </c>
-      <c r="AA52" s="284"/>
-      <c r="AB52" s="284"/>
+      <c r="AA52" s="281"/>
+      <c r="AB52" s="281"/>
       <c r="AC52" s="146" t="s">
         <v>112</v>
       </c>
       <c r="AD52" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="AE52" s="242"/>
-      <c r="AF52" s="242"/>
-      <c r="AG52" s="243"/>
+      <c r="AE52" s="244"/>
+      <c r="AF52" s="244"/>
+      <c r="AG52" s="245"/>
       <c r="AH52" s="116"/>
       <c r="AI52" s="116"/>
       <c r="AJ52" s="116"/>
@@ -8090,24 +8089,24 @@
       <c r="AW56" s="104"/>
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D57" s="244" t="s">
+      <c r="D57" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="246" t="s">
+      <c r="E57" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="247"/>
-      <c r="G57" s="247"/>
-      <c r="H57" s="247"/>
-      <c r="I57" s="247"/>
-      <c r="J57" s="248"/>
-      <c r="K57" s="246" t="s">
+      <c r="F57" s="260"/>
+      <c r="G57" s="260"/>
+      <c r="H57" s="260"/>
+      <c r="I57" s="260"/>
+      <c r="J57" s="261"/>
+      <c r="K57" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="247"/>
-      <c r="M57" s="247"/>
-      <c r="N57" s="248"/>
-      <c r="O57" s="254" t="s">
+      <c r="L57" s="260"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="261"/>
+      <c r="O57" s="246" t="s">
         <v>51</v>
       </c>
       <c r="P57" s="122" t="s">
@@ -8118,21 +8117,21 @@
       <c r="S57" s="123"/>
       <c r="T57" s="123"/>
       <c r="U57" s="123"/>
-      <c r="V57" s="246" t="s">
+      <c r="V57" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="W57" s="247"/>
-      <c r="X57" s="247"/>
-      <c r="Y57" s="247"/>
-      <c r="Z57" s="247"/>
-      <c r="AA57" s="247"/>
-      <c r="AB57" s="247"/>
-      <c r="AC57" s="247"/>
-      <c r="AD57" s="247"/>
-      <c r="AE57" s="247"/>
-      <c r="AF57" s="247"/>
-      <c r="AG57" s="247"/>
-      <c r="AH57" s="248"/>
+      <c r="W57" s="260"/>
+      <c r="X57" s="260"/>
+      <c r="Y57" s="260"/>
+      <c r="Z57" s="260"/>
+      <c r="AA57" s="260"/>
+      <c r="AB57" s="260"/>
+      <c r="AC57" s="260"/>
+      <c r="AD57" s="260"/>
+      <c r="AE57" s="260"/>
+      <c r="AF57" s="260"/>
+      <c r="AG57" s="260"/>
+      <c r="AH57" s="261"/>
       <c r="AK57" s="104"/>
       <c r="AL57" s="104"/>
       <c r="AM57" s="104"/>
@@ -8148,18 +8147,18 @@
       <c r="AW57" s="104"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="245"/>
-      <c r="E58" s="249"/>
-      <c r="F58" s="250"/>
-      <c r="G58" s="250"/>
-      <c r="H58" s="250"/>
-      <c r="I58" s="250"/>
-      <c r="J58" s="251"/>
-      <c r="K58" s="249"/>
-      <c r="L58" s="250"/>
-      <c r="M58" s="250"/>
-      <c r="N58" s="251"/>
-      <c r="O58" s="255"/>
+      <c r="D58" s="258"/>
+      <c r="E58" s="262"/>
+      <c r="F58" s="263"/>
+      <c r="G58" s="263"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="264"/>
+      <c r="K58" s="262"/>
+      <c r="L58" s="263"/>
+      <c r="M58" s="263"/>
+      <c r="N58" s="264"/>
+      <c r="O58" s="247"/>
       <c r="P58" s="124" t="s">
         <v>52</v>
       </c>
@@ -8172,23 +8171,23 @@
       <c r="S58" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="T58" s="263" t="s">
+      <c r="T58" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="U58" s="264"/>
-      <c r="V58" s="249"/>
-      <c r="W58" s="250"/>
-      <c r="X58" s="250"/>
-      <c r="Y58" s="250"/>
-      <c r="Z58" s="250"/>
-      <c r="AA58" s="250"/>
-      <c r="AB58" s="250"/>
-      <c r="AC58" s="250"/>
-      <c r="AD58" s="250"/>
-      <c r="AE58" s="250"/>
-      <c r="AF58" s="250"/>
-      <c r="AG58" s="250"/>
-      <c r="AH58" s="251"/>
+      <c r="U58" s="278"/>
+      <c r="V58" s="262"/>
+      <c r="W58" s="263"/>
+      <c r="X58" s="263"/>
+      <c r="Y58" s="263"/>
+      <c r="Z58" s="263"/>
+      <c r="AA58" s="263"/>
+      <c r="AB58" s="263"/>
+      <c r="AC58" s="263"/>
+      <c r="AD58" s="263"/>
+      <c r="AE58" s="263"/>
+      <c r="AF58" s="263"/>
+      <c r="AG58" s="263"/>
+      <c r="AH58" s="264"/>
       <c r="AK58" s="104"/>
       <c r="AL58" s="104"/>
       <c r="AM58" s="104"/>
@@ -8207,20 +8206,20 @@
       <c r="D59" s="125">
         <v>1</v>
       </c>
-      <c r="E59" s="260" t="s">
+      <c r="E59" s="252" t="s">
         <v>113</v>
       </c>
-      <c r="F59" s="261"/>
-      <c r="G59" s="261"/>
-      <c r="H59" s="261"/>
-      <c r="I59" s="261"/>
-      <c r="J59" s="262"/>
+      <c r="F59" s="253"/>
+      <c r="G59" s="253"/>
+      <c r="H59" s="253"/>
+      <c r="I59" s="253"/>
+      <c r="J59" s="254"/>
       <c r="K59" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="L59" s="242"/>
-      <c r="M59" s="242"/>
-      <c r="N59" s="243"/>
+      <c r="L59" s="244"/>
+      <c r="M59" s="244"/>
+      <c r="N59" s="245"/>
       <c r="O59" s="120"/>
       <c r="P59" s="143" t="s">
         <v>83</v>
@@ -8234,25 +8233,25 @@
       <c r="S59" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="T59" s="274" t="s">
+      <c r="T59" s="255" t="s">
         <v>83</v>
       </c>
-      <c r="U59" s="275"/>
-      <c r="V59" s="253" t="s">
+      <c r="U59" s="256"/>
+      <c r="V59" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="W59" s="242"/>
-      <c r="X59" s="242"/>
-      <c r="Y59" s="242"/>
-      <c r="Z59" s="242"/>
-      <c r="AA59" s="242"/>
-      <c r="AB59" s="242"/>
-      <c r="AC59" s="242"/>
-      <c r="AD59" s="242"/>
-      <c r="AE59" s="242"/>
-      <c r="AF59" s="242"/>
-      <c r="AG59" s="242"/>
-      <c r="AH59" s="243"/>
+      <c r="W59" s="244"/>
+      <c r="X59" s="244"/>
+      <c r="Y59" s="244"/>
+      <c r="Z59" s="244"/>
+      <c r="AA59" s="244"/>
+      <c r="AB59" s="244"/>
+      <c r="AC59" s="244"/>
+      <c r="AD59" s="244"/>
+      <c r="AE59" s="244"/>
+      <c r="AF59" s="244"/>
+      <c r="AG59" s="244"/>
+      <c r="AH59" s="245"/>
       <c r="AK59" s="104"/>
       <c r="AL59" s="104"/>
       <c r="AM59" s="104"/>
@@ -8378,33 +8377,33 @@
       <c r="D64" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="256" t="s">
+      <c r="E64" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="257"/>
-      <c r="G64" s="257"/>
-      <c r="H64" s="257"/>
-      <c r="I64" s="257"/>
-      <c r="J64" s="258"/>
-      <c r="K64" s="256" t="s">
+      <c r="F64" s="249"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
+      <c r="J64" s="250"/>
+      <c r="K64" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="L64" s="257"/>
-      <c r="M64" s="257"/>
-      <c r="N64" s="257"/>
-      <c r="O64" s="257"/>
-      <c r="P64" s="257"/>
-      <c r="Q64" s="259"/>
+      <c r="L64" s="249"/>
+      <c r="M64" s="249"/>
+      <c r="N64" s="249"/>
+      <c r="O64" s="249"/>
+      <c r="P64" s="249"/>
+      <c r="Q64" s="251"/>
       <c r="R64" s="233" t="s">
         <v>71</v>
       </c>
-      <c r="S64" s="257"/>
-      <c r="T64" s="257"/>
-      <c r="U64" s="257"/>
-      <c r="V64" s="257"/>
-      <c r="W64" s="257"/>
-      <c r="X64" s="257"/>
-      <c r="Y64" s="259"/>
+      <c r="S64" s="249"/>
+      <c r="T64" s="249"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="251"/>
       <c r="Z64" s="268" t="s">
         <v>27</v>
       </c>
@@ -8423,46 +8422,46 @@
       <c r="D65" s="128">
         <v>1</v>
       </c>
-      <c r="E65" s="252" t="s">
+      <c r="E65" s="240" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="240"/>
-      <c r="G65" s="240"/>
-      <c r="H65" s="240"/>
-      <c r="I65" s="240"/>
-      <c r="J65" s="241"/>
-      <c r="K65" s="253" t="s">
+      <c r="F65" s="241"/>
+      <c r="G65" s="241"/>
+      <c r="H65" s="241"/>
+      <c r="I65" s="241"/>
+      <c r="J65" s="242"/>
+      <c r="K65" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="L65" s="242"/>
-      <c r="M65" s="242"/>
-      <c r="N65" s="242"/>
-      <c r="O65" s="242"/>
-      <c r="P65" s="242"/>
-      <c r="Q65" s="243"/>
+      <c r="L65" s="244"/>
+      <c r="M65" s="244"/>
+      <c r="N65" s="244"/>
+      <c r="O65" s="244"/>
+      <c r="P65" s="244"/>
+      <c r="Q65" s="245"/>
       <c r="R65" s="169" t="s">
         <v>123</v>
       </c>
-      <c r="S65" s="242"/>
-      <c r="T65" s="242"/>
-      <c r="U65" s="242"/>
-      <c r="V65" s="242"/>
-      <c r="W65" s="242"/>
-      <c r="X65" s="242"/>
-      <c r="Y65" s="243"/>
-      <c r="Z65" s="253" t="s">
+      <c r="S65" s="244"/>
+      <c r="T65" s="244"/>
+      <c r="U65" s="244"/>
+      <c r="V65" s="244"/>
+      <c r="W65" s="244"/>
+      <c r="X65" s="244"/>
+      <c r="Y65" s="245"/>
+      <c r="Z65" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="AA65" s="242"/>
-      <c r="AB65" s="242"/>
-      <c r="AC65" s="242"/>
-      <c r="AD65" s="243"/>
-      <c r="AE65" s="271" t="s">
+      <c r="AA65" s="244"/>
+      <c r="AB65" s="244"/>
+      <c r="AC65" s="244"/>
+      <c r="AD65" s="245"/>
+      <c r="AE65" s="282" t="s">
         <v>69</v>
       </c>
-      <c r="AF65" s="272"/>
-      <c r="AG65" s="272"/>
-      <c r="AH65" s="273"/>
+      <c r="AF65" s="283"/>
+      <c r="AG65" s="283"/>
+      <c r="AH65" s="284"/>
     </row>
     <row r="66" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D66" s="111"/>
@@ -8826,7 +8825,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="M50:T51"/>
     <mergeCell ref="Q44:U44"/>
@@ -8841,27 +8839,17 @@
     <mergeCell ref="E44:M44"/>
     <mergeCell ref="N44:P44"/>
     <mergeCell ref="M52:T52"/>
-    <mergeCell ref="AD52:AG52"/>
     <mergeCell ref="U50:Y51"/>
     <mergeCell ref="U52:Y52"/>
     <mergeCell ref="AD49:AG51"/>
     <mergeCell ref="Z52:AB52"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AD52:AG52"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
     <mergeCell ref="V43:AC43"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
@@ -8869,11 +8857,22 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="V57:AH58"/>
     <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AE64:AH64"/>
     <mergeCell ref="Z64:AD64"/>
     <mergeCell ref="R65:Y65"/>
     <mergeCell ref="Z65:AD65"/>
     <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="T59:U59"/>
     <mergeCell ref="V59:AH59"/>
     <mergeCell ref="D57:D58"/>
